--- a/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
+++ b/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C090275F-1412-4B19-910B-1E9F38317D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DA7A50-7E1E-40BC-9B94-67A833AE477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{7203CC4F-6EBC-4EE1-A1EF-2143958DE8F9}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{EF0CD48B-90ED-4939-BBC5-3181C9DED925}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Timer_Clock_TOP(Al" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
   <si>
     <t>Quantity</t>
   </si>
@@ -123,16 +123,16 @@
     <t>LED W</t>
   </si>
   <si>
-    <t>LED XLAMP WARM WHITE 3250K 4SMD</t>
+    <t>LED XLAMP WARM WHITE 2200K 2SMD</t>
   </si>
   <si>
     <t>CreeLED, Inc.</t>
   </si>
   <si>
-    <t>MLEAWT-A1-0000-0003F7</t>
-  </si>
-  <si>
-    <t>D_LED_W_HP</t>
+    <t>XTEAWT-00-0000-00000LAEA</t>
+  </si>
+  <si>
+    <t>D_LED_W_HP_2</t>
   </si>
   <si>
     <t>D504, D505, D507, D508</t>
@@ -240,6 +240,24 @@
     <t>CABLE_FPC24_80</t>
   </si>
   <si>
+    <t>HS500, HS501, HS502</t>
+  </si>
+  <si>
+    <t>Heatsink</t>
+  </si>
+  <si>
+    <t>Heatsink 6.5mm x 6.5mm</t>
+  </si>
+  <si>
+    <t>Alphacool</t>
+  </si>
+  <si>
+    <t>17425</t>
+  </si>
+  <si>
+    <t>Heatsink_6.5x6.5</t>
+  </si>
+  <si>
     <t>SW500, SW501, SW502, SW503, SW504</t>
   </si>
   <si>
@@ -300,7 +318,43 @@
     <t>R_2k_0402</t>
   </si>
   <si>
-    <t>R505, R507, R508</t>
+    <t>R506, R509, R510</t>
+  </si>
+  <si>
+    <t>R 0R27 1206</t>
+  </si>
+  <si>
+    <t>RES 0.27 OHM 1% 1/3W 1206</t>
+  </si>
+  <si>
+    <t>RALEC</t>
+  </si>
+  <si>
+    <t>RTT06R270FTP</t>
+  </si>
+  <si>
+    <t>R_0R27_1206</t>
+  </si>
+  <si>
+    <t>R500, R501, R503, R504</t>
+  </si>
+  <si>
+    <t>R 10k 0402</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
+  </si>
+  <si>
+    <t>R_10k_0402</t>
+  </si>
+  <si>
+    <t>R505, R507, R508, R516, R517</t>
   </si>
   <si>
     <t>R 0R0 0402</t>
@@ -315,43 +369,7 @@
     <t>R_0R0_0402</t>
   </si>
   <si>
-    <t>R506, R509, R510</t>
-  </si>
-  <si>
-    <t>R 0R27 1206</t>
-  </si>
-  <si>
-    <t>RES 0.27 OHM 1% 1/3W 1206</t>
-  </si>
-  <si>
-    <t>RALEC</t>
-  </si>
-  <si>
-    <t>RTT06R270FTP</t>
-  </si>
-  <si>
-    <t>R_0R27_1206</t>
-  </si>
-  <si>
-    <t>R500, R501, R503, R504</t>
-  </si>
-  <si>
-    <t>R 10k 0402</t>
-  </si>
-  <si>
-    <t>RES 10K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>YAGEO</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710KL</t>
-  </si>
-  <si>
-    <t>R_10k_0402</t>
-  </si>
-  <si>
-    <t>R511, R512, R514, R515</t>
+    <t>R511, R512, R514, R515, R518, R519, R520</t>
   </si>
   <si>
     <t>R 16k 0402</t>
@@ -746,8 +764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F46EDF-619B-48FB-9EE5-014B765FB86F}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E4BD8B-DE03-4185-98FD-EC6AAA0ED9AF}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,7 +1068,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>70</v>
@@ -1076,28 +1094,28 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,36 +1123,36 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>91</v>
@@ -1143,13 +1161,13 @@
         <v>92</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1157,25 +1175,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,51 +1201,77 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
+++ b/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DA7A50-7E1E-40BC-9B94-67A833AE477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5BCA38-AC4E-46A9-971E-8C132E5F2E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{EF0CD48B-90ED-4939-BBC5-3181C9DED925}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{A1DFE8A3-D8F5-45CD-9FA8-91C94F98130A}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Timer_Clock_TOP(Al" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E4BD8B-DE03-4185-98FD-EC6AAA0ED9AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF74061D-60F7-474D-86F3-BD5D1BE60F7D}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
+++ b/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5BCA38-AC4E-46A9-971E-8C132E5F2E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7470F446-4C3A-4381-9E28-D49CE8EAAF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{A1DFE8A3-D8F5-45CD-9FA8-91C94F98130A}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{BA310D90-FD2D-4A59-990F-B020F17F07DF}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Timer_Clock_TOP(Al" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
   <si>
     <t>Quantity</t>
   </si>
@@ -54,6 +54,12 @@
     <t>LibRef</t>
   </si>
   <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
     <t>C500, C501, C502, C503, C504, C505, C506, C507</t>
   </si>
   <si>
@@ -75,6 +81,12 @@
     <t>CAP_2.2uF_6V3_0402</t>
   </si>
   <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>490-10450-1-ND</t>
+  </si>
+  <si>
     <t>J500</t>
   </si>
   <si>
@@ -96,6 +108,12 @@
     <t>J_FPC24_DS</t>
   </si>
   <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>C293627</t>
+  </si>
+  <si>
     <t>D506</t>
   </si>
   <si>
@@ -117,22 +135,28 @@
     <t>D_LED_Yellow_0603</t>
   </si>
   <si>
+    <t>404-1273-1-ND</t>
+  </si>
+  <si>
     <t>D513, D514, D515</t>
   </si>
   <si>
     <t>LED W</t>
   </si>
   <si>
-    <t>LED XLAMP WARM WHITE 2200K 2SMD</t>
+    <t>LED XLAMP WARM WHT 2700K SMD</t>
   </si>
   <si>
     <t>CreeLED, Inc.</t>
   </si>
   <si>
-    <t>XTEAWT-00-0000-00000LAEA</t>
-  </si>
-  <si>
-    <t>D_LED_W_HP_2</t>
+    <t>XTEAWT-E0-0000-00000HEE8</t>
+  </si>
+  <si>
+    <t>D_LED_W_HP_3</t>
+  </si>
+  <si>
+    <t>XTEAWT-E0-0000-00000HEE8TR-ND</t>
   </si>
   <si>
     <t>D504, D505, D507, D508</t>
@@ -153,6 +177,9 @@
     <t>D_LED_Green_0603</t>
   </si>
   <si>
+    <t>475-3442-1-ND</t>
+  </si>
+  <si>
     <t>D500, D501, D502, D503, D509, D510, D511, D512</t>
   </si>
   <si>
@@ -168,6 +195,9 @@
     <t>D_LED_White_s</t>
   </si>
   <si>
+    <t>C710226</t>
+  </si>
+  <si>
     <t>IC501</t>
   </si>
   <si>
@@ -186,6 +216,9 @@
     <t>IC_LCD_cntr_BL55072A-R</t>
   </si>
   <si>
+    <t>C524044</t>
+  </si>
+  <si>
     <t>IC500, IC502</t>
   </si>
   <si>
@@ -204,6 +237,12 @@
     <t>IC_LED_cntr_MIC2841</t>
   </si>
   <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>998-MIC2841AYMTTR</t>
+  </si>
+  <si>
     <t>IC503, IC504, IC505</t>
   </si>
   <si>
@@ -219,6 +258,9 @@
     <t>IC_LED_cntr_OC7140</t>
   </si>
   <si>
+    <t>C842736</t>
+  </si>
+  <si>
     <t>CABLE500</t>
   </si>
   <si>
@@ -258,6 +300,12 @@
     <t>Heatsink_6.5x6.5</t>
   </si>
   <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>B077VQTB6Q</t>
+  </si>
+  <si>
     <t>SW500, SW501, SW502, SW503, SW504</t>
   </si>
   <si>
@@ -276,6 +324,9 @@
     <t>SW_TactileSW_V_2</t>
   </si>
   <si>
+    <t>C294565</t>
+  </si>
+  <si>
     <t>DS500</t>
   </si>
   <si>
@@ -297,6 +348,9 @@
     <t>DISPL_7SEG_4x1</t>
   </si>
   <si>
+    <t>153-1135-ND</t>
+  </si>
+  <si>
     <t>R513</t>
   </si>
   <si>
@@ -318,6 +372,9 @@
     <t>R_2k_0402</t>
   </si>
   <si>
+    <t>RMCF0402FT2K00CT-ND</t>
+  </si>
+  <si>
     <t>R506, R509, R510</t>
   </si>
   <si>
@@ -336,6 +393,9 @@
     <t>R_0R27_1206</t>
   </si>
   <si>
+    <t>C104939</t>
+  </si>
+  <si>
     <t>R500, R501, R503, R504</t>
   </si>
   <si>
@@ -354,6 +414,9 @@
     <t>R_10k_0402</t>
   </si>
   <si>
+    <t>311-10.0KLRCT-ND</t>
+  </si>
+  <si>
     <t>R505, R507, R508, R516, R517</t>
   </si>
   <si>
@@ -369,6 +432,9 @@
     <t>R_0R0_0402</t>
   </si>
   <si>
+    <t>RMCF0402ZT0R00CT-ND</t>
+  </si>
+  <si>
     <t>R511, R512, R514, R515, R518, R519, R520</t>
   </si>
   <si>
@@ -382,6 +448,9 @@
   </si>
   <si>
     <t>R_16k_0402</t>
+  </si>
+  <si>
+    <t>RMCF0402FT16K0CT-ND</t>
   </si>
 </sst>
 </file>
@@ -764,8 +833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF74061D-60F7-474D-86F3-BD5D1BE60F7D}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F16870-99BE-4620-A724-46712A74FE69}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,9 +847,10 @@
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,473 +875,587 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>117</v>
+        <v>139</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
+++ b/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7470F446-4C3A-4381-9E28-D49CE8EAAF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D02AB73-C210-473B-ABE4-EF62C8244920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{BA310D90-FD2D-4A59-990F-B020F17F07DF}"/>
+    <workbookView xWindow="5115" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{421F60A7-A67A-40AC-983C-A249FB7DE48C}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Timer_Clock_TOP(Al" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t>Quantity</t>
   </si>
@@ -396,6 +396,27 @@
     <t>C104939</t>
   </si>
   <si>
+    <t>R518, R519, R520</t>
+  </si>
+  <si>
+    <t>R 270k 0402</t>
+  </si>
+  <si>
+    <t>RES 270K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>RC0402FR-07270KL</t>
+  </si>
+  <si>
+    <t>R_270k_0402</t>
+  </si>
+  <si>
+    <t>311-270KLRCT-ND</t>
+  </si>
+  <si>
     <t>R500, R501, R503, R504</t>
   </si>
   <si>
@@ -405,9 +426,6 @@
     <t>RES 10K OHM 1% 1/16W 0402</t>
   </si>
   <si>
-    <t>YAGEO</t>
-  </si>
-  <si>
     <t>RC0402FR-0710KL</t>
   </si>
   <si>
@@ -417,6 +435,24 @@
     <t>311-10.0KLRCT-ND</t>
   </si>
   <si>
+    <t>R511, R512, R514, R515</t>
+  </si>
+  <si>
+    <t>R 16k 0402</t>
+  </si>
+  <si>
+    <t>RES 16K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RMCF0402FT16K0</t>
+  </si>
+  <si>
+    <t>R_16k_0402</t>
+  </si>
+  <si>
+    <t>RMCF0402FT16K0CT-ND</t>
+  </si>
+  <si>
     <t>R505, R507, R508, R516, R517</t>
   </si>
   <si>
@@ -433,24 +469,6 @@
   </si>
   <si>
     <t>RMCF0402ZT0R00CT-ND</t>
-  </si>
-  <si>
-    <t>R511, R512, R514, R515, R518, R519, R520</t>
-  </si>
-  <si>
-    <t>R 16k 0402</t>
-  </si>
-  <si>
-    <t>RES 16K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>RMCF0402FT16K0</t>
-  </si>
-  <si>
-    <t>R_16k_0402</t>
-  </si>
-  <si>
-    <t>RMCF0402FT16K0CT-ND</t>
   </si>
 </sst>
 </file>
@@ -833,8 +851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F16870-99BE-4620-A724-46712A74FE69}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D6F3AA-1191-4DD6-8027-90AB1FA4A23E}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1364,7 +1382,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>122</v>
@@ -1396,7 +1414,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>129</v>
@@ -1411,7 +1429,7 @@
         <v>131</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>132</v>
@@ -1428,7 +1446,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>135</v>
@@ -1456,6 +1474,38 @@
       </c>
       <c r="J19" s="3" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
+++ b/HW/PCB_TOP/Default Configuration/Outputs/BOM/BOM_PartType-Timer_Clock_TOP(Alarm Clock).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D02AB73-C210-473B-ABE4-EF62C8244920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE672100-7674-4DD3-8368-D49E833B8C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{421F60A7-A67A-40AC-983C-A249FB7DE48C}"/>
+    <workbookView xWindow="5115" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{E3D6DAF7-8BD8-4ECE-874A-05E53B7114F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Timer_Clock_TOP(Al" sheetId="1" r:id="rId1"/>
@@ -851,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D6F3AA-1191-4DD6-8027-90AB1FA4A23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85254FA1-AF34-4918-9F95-D8874709E78D}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
